--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-08T15:26:10+00:00</t>
+    <t>2023-05-11T13:00:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T13:00:33+00:00</t>
+    <t>2023-05-11T21:57:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T21:57:42+00:00</t>
+    <t>2023-05-12T12:33:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$20</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="99">
   <si>
     <t>Property</t>
   </si>
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-12T12:33:13+00:00</t>
+    <t>2023-08-01T16:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,117 +127,6 @@
   </si>
   <si>
     <t>element:Element</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Path</t>
-  </si>
-  <si>
-    <t>Slice Name</t>
-  </si>
-  <si>
-    <t>Alias(s)</t>
-  </si>
-  <si>
-    <t>Label</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
-    <t>Must Support?</t>
-  </si>
-  <si>
-    <t>Is Modifier?</t>
-  </si>
-  <si>
-    <t>Is Summary?</t>
-  </si>
-  <si>
-    <t>Type(s)</t>
-  </si>
-  <si>
-    <t>Short</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>Requirements</t>
-  </si>
-  <si>
-    <t>Default Value</t>
-  </si>
-  <si>
-    <t>Meaning When Missing</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Pattern</t>
-  </si>
-  <si>
-    <t>Example</t>
-  </si>
-  <si>
-    <t>Minimum Value</t>
-  </si>
-  <si>
-    <t>Maximum Value</t>
-  </si>
-  <si>
-    <t>Maximum Length</t>
-  </si>
-  <si>
-    <t>Binding Strength</t>
-  </si>
-  <si>
-    <t>Binding Description</t>
-  </si>
-  <si>
-    <t>Binding Value Set</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Slicing Discriminator</t>
-  </si>
-  <si>
-    <t>Slicing Description</t>
-  </si>
-  <si>
-    <t>Slicing Ordered</t>
-  </si>
-  <si>
-    <t>Slicing Rules</t>
-  </si>
-  <si>
-    <t>Base Path</t>
-  </si>
-  <si>
-    <t>Base Min</t>
-  </si>
-  <si>
-    <t>Base Max</t>
-  </si>
-  <si>
-    <t>Condition(s)</t>
-  </si>
-  <si>
-    <t>Constraint(s)</t>
-  </si>
-  <si>
-    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -425,19 +314,6 @@
   <si>
     <t xml:space="preserve">Coding
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.extension:genomeBuild.value[x]:valueCoding</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
   </si>
   <si>
     <t>required</t>
@@ -569,10 +445,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -767,7 +643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -776,2336 +652,2118 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.4375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.86328125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>38</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s" s="2">
         <v>39</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="H1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="L1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="2"/>
+      <c r="R1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="S1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="V1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="W1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="X1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Y1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="Z1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AA1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF1" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="AG1" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH1" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI1" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>43</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>44</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>45</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>46</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>47</v>
-      </c>
-      <c r="L1" t="s" s="1">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s" s="1">
-        <v>49</v>
-      </c>
-      <c r="N1" t="s" s="1">
-        <v>50</v>
-      </c>
-      <c r="O1" t="s" s="1">
-        <v>51</v>
-      </c>
-      <c r="P1" t="s" s="1">
-        <v>52</v>
-      </c>
-      <c r="Q1" t="s" s="1">
-        <v>53</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>54</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>55</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>56</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>57</v>
-      </c>
-      <c r="V1" t="s" s="1">
-        <v>58</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>59</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>60</v>
-      </c>
-      <c r="Y1" t="s" s="1">
-        <v>61</v>
-      </c>
-      <c r="Z1" t="s" s="1">
-        <v>62</v>
-      </c>
-      <c r="AA1" t="s" s="1">
-        <v>63</v>
-      </c>
-      <c r="AB1" t="s" s="1">
-        <v>64</v>
-      </c>
-      <c r="AC1" t="s" s="1">
-        <v>65</v>
-      </c>
-      <c r="AD1" t="s" s="1">
-        <v>66</v>
-      </c>
-      <c r="AE1" t="s" s="1">
-        <v>67</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>68</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>69</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>70</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>71</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>72</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>73</v>
+      <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="N3" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="N3" t="s" s="2">
+        <v>54</v>
+      </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>61</v>
+      </c>
       <c r="D4" t="s" s="2">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>91</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>96</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH7" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C9" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>84</v>
+      </c>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>121</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J13" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>121</v>
+        <v>37</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>90</v>
+      </c>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>118</v>
+        <v>58</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>119</v>
+        <v>59</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>113</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>85</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="I17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>92</v>
+        <v>37</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>74</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>111</v>
-      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AC19" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>134</v>
+        <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>80</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="Y20" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>37</v>
+      </c>
       <c r="Z20" t="s" s="2">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" hidden="true">
-      <c r="A22" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="G22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K22" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Q22" s="2"/>
-      <c r="R22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK22">
+  <autoFilter ref="A1:AK20">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3115,7 +2773,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI21">
+  <conditionalFormatting sqref="A2:AI19">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T16:12:28+00:00</t>
+    <t>2023-10-16T18:33:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -146,6 +146,10 @@
 </t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
     <t>Extension.id</t>
   </si>
   <si>
@@ -199,10 +203,6 @@
   </si>
   <si>
     <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Extension.extension:workflowName</t>
@@ -785,7 +785,7 @@
         <v>41</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
         <v>37</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -807,7 +807,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>37</v>
@@ -819,13 +819,13 @@
         <v>37</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -876,13 +876,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -891,19 +891,19 @@
         <v>37</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
@@ -922,16 +922,16 @@
         <v>37</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -969,19 +969,19 @@
         <v>37</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
@@ -993,10 +993,10 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" hidden="true">
@@ -1004,7 +1004,7 @@
         <v>60</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>61</v>
@@ -1017,7 +1017,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>62</v>
@@ -1029,7 +1029,7 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s" s="2">
         <v>28</v>
@@ -1086,7 +1086,7 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
@@ -1098,7 +1098,7 @@
         <v>37</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>37</v>
@@ -1120,7 +1120,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>37</v>
@@ -1132,13 +1132,13 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1189,13 +1189,13 @@
         <v>37</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>37</v>
@@ -1204,7 +1204,7 @@
         <v>37</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" hidden="true">
@@ -1235,7 +1235,7 @@
         <v>37</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
         <v>28</v>
@@ -1280,19 +1280,19 @@
         <v>37</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
@@ -1304,7 +1304,7 @@
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -1323,10 +1323,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>37</v>
@@ -1400,10 +1400,10 @@
         <v>75</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
@@ -1431,7 +1431,7 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>37</v>
@@ -1443,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s" s="2">
         <v>79</v>
@@ -1506,7 +1506,7 @@
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
@@ -1523,7 +1523,7 @@
         <v>83</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>84</v>
@@ -1536,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>62</v>
@@ -1548,7 +1548,7 @@
         <v>37</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>28</v>
@@ -1605,7 +1605,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -1617,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -1639,7 +1639,7 @@
         <v>38</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>37</v>
@@ -1651,13 +1651,13 @@
         <v>37</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1708,13 +1708,13 @@
         <v>37</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>37</v>
@@ -1723,7 +1723,7 @@
         <v>37</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" hidden="true">
@@ -1754,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s" s="2">
         <v>28</v>
@@ -1799,19 +1799,19 @@
         <v>37</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -1823,7 +1823,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -1842,10 +1842,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>37</v>
@@ -1919,10 +1919,10 @@
         <v>75</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
@@ -1950,7 +1950,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -1962,7 +1962,7 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>79</v>
@@ -2025,7 +2025,7 @@
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
@@ -2042,7 +2042,7 @@
         <v>89</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>90</v>
@@ -2055,7 +2055,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>62</v>
@@ -2067,7 +2067,7 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>28</v>
@@ -2124,7 +2124,7 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
@@ -2136,7 +2136,7 @@
         <v>37</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>37</v>
@@ -2158,7 +2158,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>37</v>
@@ -2170,13 +2170,13 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2227,13 +2227,13 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>37</v>
@@ -2242,7 +2242,7 @@
         <v>37</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" hidden="true">
@@ -2273,7 +2273,7 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>28</v>
@@ -2318,19 +2318,19 @@
         <v>37</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -2342,7 +2342,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -2361,10 +2361,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>37</v>
@@ -2438,10 +2438,10 @@
         <v>75</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>37</v>
@@ -2469,7 +2469,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>37</v>
@@ -2542,7 +2542,7 @@
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
@@ -2567,10 +2567,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>37</v>
@@ -2644,10 +2644,10 @@
         <v>75</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>37</v>
@@ -2750,7 +2750,7 @@
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>37</v>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$21</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="136">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T18:33:36+00:00</t>
+    <t>2023-11-09T20:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,6 +127,117 @@
   </si>
   <si>
     <t>element:Element</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Path</t>
+  </si>
+  <si>
+    <t>Slice Name</t>
+  </si>
+  <si>
+    <t>Alias(s)</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Must Support?</t>
+  </si>
+  <si>
+    <t>Is Modifier?</t>
+  </si>
+  <si>
+    <t>Is Summary?</t>
+  </si>
+  <si>
+    <t>Type(s)</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Default Value</t>
+  </si>
+  <si>
+    <t>Meaning When Missing</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Pattern</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Minimum Value</t>
+  </si>
+  <si>
+    <t>Maximum Value</t>
+  </si>
+  <si>
+    <t>Maximum Length</t>
+  </si>
+  <si>
+    <t>Binding Strength</t>
+  </si>
+  <si>
+    <t>Binding Description</t>
+  </si>
+  <si>
+    <t>Binding Value Set</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Slicing Discriminator</t>
+  </si>
+  <si>
+    <t>Slicing Description</t>
+  </si>
+  <si>
+    <t>Slicing Ordered</t>
+  </si>
+  <si>
+    <t>Slicing Rules</t>
+  </si>
+  <si>
+    <t>Base Path</t>
+  </si>
+  <si>
+    <t>Base Min</t>
+  </si>
+  <si>
+    <t>Base Max</t>
+  </si>
+  <si>
+    <t>Condition(s)</t>
+  </si>
+  <si>
+    <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: RIM Mapping</t>
   </si>
   <si>
     <t/>
@@ -643,7 +754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK20"/>
+  <dimension ref="A1:AK21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -656,2114 +767,2229 @@
     <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="6" max="6" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="8.8046875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="1.04296875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="43.265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="10.26171875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="1.04296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="5.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="2.2109375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="2.2109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="20.703125" customWidth="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="4.2890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" t="s" s="2">
+      <c r="A1" t="s" s="1">
         <v>37</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" t="s" s="2">
+      <c r="B1" t="s" s="1">
         <v>38</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="C1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="H1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="K1" t="s" s="2">
+      <c r="D1" t="s" s="1">
         <v>40</v>
       </c>
-      <c r="L1" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="M1" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="2"/>
-      <c r="R1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE1" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF1" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="AG1" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH1" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI1" t="s" s="2">
+      <c r="E1" t="s" s="1">
         <v>41</v>
       </c>
-      <c r="AJ1" t="s" s="2">
+      <c r="F1" t="s" s="1">
         <v>42</v>
       </c>
-      <c r="AK1" t="s" s="2">
-        <v>37</v>
+      <c r="G1" t="s" s="1">
+        <v>43</v>
+      </c>
+      <c r="H1" t="s" s="1">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s" s="1">
+        <v>45</v>
+      </c>
+      <c r="J1" t="s" s="1">
+        <v>46</v>
+      </c>
+      <c r="K1" t="s" s="1">
+        <v>47</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>49</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>50</v>
+      </c>
+      <c r="O1" t="s" s="1">
+        <v>51</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>52</v>
+      </c>
+      <c r="Q1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="R1" t="s" s="1">
+        <v>54</v>
+      </c>
+      <c r="S1" t="s" s="1">
+        <v>55</v>
+      </c>
+      <c r="T1" t="s" s="1">
+        <v>56</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>57</v>
+      </c>
+      <c r="V1" t="s" s="1">
+        <v>58</v>
+      </c>
+      <c r="W1" t="s" s="1">
+        <v>59</v>
+      </c>
+      <c r="X1" t="s" s="1">
+        <v>60</v>
+      </c>
+      <c r="Y1" t="s" s="1">
+        <v>61</v>
+      </c>
+      <c r="Z1" t="s" s="1">
+        <v>62</v>
+      </c>
+      <c r="AA1" t="s" s="1">
+        <v>63</v>
+      </c>
+      <c r="AB1" t="s" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC1" t="s" s="1">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s" s="1">
+        <v>66</v>
+      </c>
+      <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>55</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>49</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>61</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="N4" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="N4" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>59</v>
+        <v>96</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>77</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>98</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s" s="2">
-        <v>84</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N13" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N13" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>121</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="C14" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>37</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>91</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>127</v>
+      </c>
       <c r="D15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="Y18" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Z18" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>75</v>
+        <v>131</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>3</v>
+        <v>74</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>37</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>37</v>
+        <v>119</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" hidden="true">
+      <c r="A21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK20">
+  <autoFilter ref="A1:AK21">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -2773,7 +2999,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI19">
+  <conditionalFormatting sqref="A2:AI20">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-09T20:06:51+00:00</t>
+    <t>2023-11-15T18:25:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T18:25:48+00:00</t>
+    <t>2023-11-15T19:01:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T19:01:06+00:00</t>
+    <t>2023-12-04T14:59:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T14:59:45+00:00</t>
+    <t>2023-12-07T15:05:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:05:41+00:00</t>
+    <t>2024-01-17T15:25:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T15:25:58+00:00</t>
+    <t>2024-01-17T16:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:00:29+00:00</t>
+    <t>2024-01-17T16:27:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:27:10+00:00</t>
+    <t>2024-01-17T16:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-17T16:37:11+00:00</t>
+    <t>2024-10-02T15:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Ferlab.bio (http://example.org/example-publisher)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -238,9 +244,6 @@
   </si>
   <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>0</t>
@@ -583,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -683,21 +686,21 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -745,6 +748,14 @@
       </c>
       <c r="B20" t="s" s="2">
         <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -803,2189 +814,2189 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-02T15:04:17+00:00</t>
+    <t>2024-12-18T18:27:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$16</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="128">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T18:27:33+00:00</t>
+    <t>2025-05-13T18:56:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,21 +289,14 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
+    <t>2</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -319,34 +312,28 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Extension.extension:workflowName</t>
-  </si>
-  <si>
-    <t>workflowName</t>
+    <t>Extension.extension:genomeBuild</t>
+  </si>
+  <si>
+    <t>genomeBuild</t>
   </si>
   <si>
     <t>Y</t>
   </si>
   <si>
-    <t>No description</t>
-  </si>
-  <si>
-    <t>Extension.extension:workflowName.id</t>
+    <t>Extension.extension:genomeBuild.id</t>
   </si>
   <si>
     <t>Extension.extension.id</t>
   </si>
   <si>
-    <t>Extension.extension:workflowName.extension</t>
+    <t>Extension.extension:genomeBuild.extension</t>
   </si>
   <si>
     <t>Extension.extension.extension</t>
   </si>
   <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:workflowName.url</t>
+    <t>Extension.extension:genomeBuild.url</t>
   </si>
   <si>
     <t>Extension.extension.url</t>
@@ -371,16 +358,26 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Extension.extension:workflowName.value[x]</t>
+    <t>Extension.extension:genomeBuild.value[x]</t>
   </si>
   <si>
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
     <t>Value of extension</t>
   </si>
   <si>
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://fhir.cqdg.ca/ValueSet/genome-build-vs</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -390,50 +387,25 @@
 </t>
   </si>
   <si>
-    <t>Extension.extension:workflowVersion</t>
-  </si>
-  <si>
-    <t>workflowVersion</t>
-  </si>
-  <si>
-    <t>Extension.extension:workflowVersion.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:workflowVersion.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:workflowVersion.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:workflowVersion.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:genomeBuild</t>
-  </si>
-  <si>
-    <t>genomeBuild</t>
-  </si>
-  <si>
-    <t>Extension.extension:genomeBuild.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:genomeBuild.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:genomeBuild.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:genomeBuild.value[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://fhir.cqdg.ca/ValueSet/genome-build-vs</t>
+    <t>Extension.extension:pipeline</t>
+  </si>
+  <si>
+    <t>pipeline</t>
+  </si>
+  <si>
+    <t>No description</t>
+  </si>
+  <si>
+    <t>Extension.extension:pipeline.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:pipeline.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:pipeline.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:pipeline.value[x]</t>
   </si>
   <si>
     <t>base64Binary
@@ -765,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK21"/>
+  <dimension ref="A1:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -774,42 +746,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="24.9921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.26171875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.4296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.09375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="15.59375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.4140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1140,11 +1112,11 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
@@ -1162,14 +1134,12 @@
         <v>90</v>
       </c>
       <c r="L4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="M4" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="N4" t="s" s="2">
-        <v>93</v>
-      </c>
+      <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
         <v>20</v>
@@ -1206,19 +1176,19 @@
         <v>20</v>
       </c>
       <c r="AB4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC4" t="s" s="2">
+      <c r="AF4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AD4" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
@@ -1233,31 +1203,31 @@
         <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>87</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>20</v>
@@ -1272,7 +1242,7 @@
         <v>30</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1323,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
@@ -1343,10 +1313,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1446,10 +1416,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1478,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1517,19 +1487,19 @@
         <v>20</v>
       </c>
       <c r="AB7" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE7" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC7" t="s" s="2">
+      <c r="AF7" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
@@ -1549,10 +1519,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1575,16 +1545,16 @@
         <v>20</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1592,7 +1562,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>20</v>
@@ -1634,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>82</v>
@@ -1649,15 +1619,15 @@
         <v>20</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1680,13 +1650,13 @@
         <v>20</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1713,13 +1683,11 @@
         <v>20</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y9" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>20</v>
@@ -1737,7 +1705,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -1749,34 +1717,34 @@
         <v>20</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>88</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>20</v>
@@ -1791,7 +1759,7 @@
         <v>30</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1842,7 +1810,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -1865,7 +1833,7 @@
         <v>123</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1968,7 +1936,7 @@
         <v>124</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1997,7 +1965,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2036,19 +2004,19 @@
         <v>20</v>
       </c>
       <c r="AB12" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE12" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="AC12" t="s" s="2">
+      <c r="AF12" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -2071,7 +2039,7 @@
         <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2094,16 +2062,16 @@
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2111,7 +2079,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>20</v>
@@ -2153,7 +2121,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>82</v>
@@ -2168,7 +2136,7 @@
         <v>20</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" hidden="true">
@@ -2176,7 +2144,7 @@
         <v>126</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2202,10 +2170,10 @@
         <v>83</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2256,7 +2224,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -2268,34 +2236,32 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>128</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>20</v>
@@ -2304,22 +2270,24 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N15" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>20</v>
@@ -2361,30 +2329,30 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>20</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2395,7 +2363,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -2407,13 +2375,13 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2464,7 +2432,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -2476,531 +2444,14 @@
         <v>20</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>20</v>
+        <v>119</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" hidden="true">
-      <c r="A17" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="2"/>
-      <c r="R17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" hidden="true">
-      <c r="A18" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L18" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M18" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O18" s="2"/>
-      <c r="P18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="19" hidden="true">
-      <c r="A19" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="Y19" s="2"/>
-      <c r="Z19" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" hidden="true">
-      <c r="A20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O20" s="2"/>
-      <c r="P20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" hidden="true">
-      <c r="A21" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q21" s="2"/>
-      <c r="R21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>114</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK21">
+  <autoFilter ref="A1:AK16">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3010,7 +2461,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI20">
+  <conditionalFormatting sqref="A2:AI15">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-13T18:56:15+00:00</t>
+    <t>2025-05-20T15:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-20T15:08:54+00:00</t>
+    <t>2025-05-21T20:08:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T20:08:08+00:00</t>
+    <t>2025-05-27T17:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:50:40+00:00</t>
+    <t>2025-05-27T17:52:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T17:52:17+00:00</t>
+    <t>2025-05-29T13:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-29T13:27:52+00:00</t>
+    <t>2025-06-12T13:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:19:08+00:00</t>
+    <t>2025-06-12T13:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-12T13:42:51+00:00</t>
+    <t>2025-08-13T14:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T14:50:19+00:00</t>
+    <t>2025-08-20T13:12:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T13:12:16+00:00</t>
+    <t>2025-08-29T12:39:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T12:39:24+00:00</t>
+    <t>2025-09-03T17:56:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-03T17:56:07+00:00</t>
+    <t>2025-09-05T17:42:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T17:42:32+00:00</t>
+    <t>2025-09-12T13:34:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:34:32+00:00</t>
+    <t>2025-09-16T14:36:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-16T14:36:01+00:00</t>
+    <t>2025-09-18T19:56:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T19:56:42+00:00</t>
+    <t>2025-09-18T20:45:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T20:45:23+00:00</t>
+    <t>2025-09-22T20:20:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-22T20:20:13+00:00</t>
+    <t>2025-09-23T20:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:31:36+00:00</t>
+    <t>2025-09-23T20:38:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T20:38:56+00:00</t>
+    <t>2026-01-20T16:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1206,7 +1206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>96</v>
       </c>
@@ -1723,7 +1723,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>120</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>82</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>98</v>
@@ -2452,12 +2452,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AK16">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/docs/StructureDefinition-workflowExtension.xlsx
+++ b/docs/StructureDefinition-workflowExtension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-20T16:06:26+00:00</t>
+    <t>2026-01-22T16:34:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
